--- a/Translator/excel/Missing/Missing_Dutch.xlsx
+++ b/Translator/excel/Missing/Missing_Dutch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>English</t>
   </si>
@@ -125,15 +125,6 @@
   </si>
   <si>
     <t>&lt;Settings&gt;&lt;videoDelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Actions&gt;&lt;dualdeckmode_decks&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;LoadTagS&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;autoMixBeatMatchOnfade&gt;</t>
   </si>
   <si>
     <t>Change the amount of a stem in the mix. Stem names are: "HiHat", "Vocal", "Instru", "Bass", "Kick", or you can use aggregate stems: "Melody" (Instru+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melody/Vocal), "MeloRhythm" (Melody/Rhythm).
@@ -595,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -625,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -633,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -641,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -649,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -657,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -665,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -673,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -681,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -689,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -697,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -705,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -713,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -721,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -729,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -737,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -745,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -753,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -761,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -769,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -777,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -785,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -793,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -801,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -809,7 +800,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -817,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -825,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -833,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -841,7 +832,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -849,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -857,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -865,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -873,7 +864,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -881,22 +872,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
